--- a/scripts/eda/Model resultater.xlsx
+++ b/scripts/eda/Model resultater.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simon\Projekter\Data Science Project\BilbasenProject\scripts\eda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C970054-64D5-43C7-93C0-91D690F66A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1026F3-D7CB-4968-A28F-B8F41765092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="435" windowWidth="21600" windowHeight="11295" xr2:uid="{4E1136BC-8D98-4D09-91A4-1E033F85CD28}"/>
+    <workbookView xWindow="3525" yWindow="360" windowWidth="21600" windowHeight="13635" xr2:uid="{4E1136BC-8D98-4D09-91A4-1E033F85CD28}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -223,19 +223,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C359106B-891C-4F3D-8B2F-4D76691E29ED}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -619,25 +617,25 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>484468900</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>22010.653696000001</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>0.76690999999999998</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1">
         <v>636437400</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="1">
         <v>25227.711151</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.69728299999999999</v>
       </c>
     </row>
@@ -645,25 +643,25 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>978958000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>31288.304688</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>0.52899799999999997</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>1759304000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>41944.061002000002</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0.16319900000000001</v>
       </c>
     </row>
@@ -671,25 +669,25 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>318687900</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>17851.831628</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>0.84667099999999995</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>614920000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>24797.581113</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>0.70751699999999995</v>
       </c>
     </row>
@@ -697,51 +695,51 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>231454100</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>15213.615878000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>0.88864200000000004</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>588629100</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>24261.679969000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.72002299999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>2081600000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>45624.559726</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>-1.511E-3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>2125823000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>46106.643658000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>-1.1133000000000001E-2</v>
       </c>
     </row>
@@ -768,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -776,25 +774,25 @@
       <c r="A10" s="5">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>511167100</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>22609.004916000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>0.75406499999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="1">
         <v>626250400</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="1">
         <v>25024.99466</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.70212799999999997</v>
       </c>
     </row>
@@ -802,25 +800,25 @@
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>981369900</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>31326.823495000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>0.52783800000000003</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
         <v>1797237000</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="1">
         <v>42393.833533999998</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.14515600000000001</v>
       </c>
     </row>
@@ -828,25 +826,25 @@
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>302639500</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="1">
         <v>17396.535823999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="1">
         <v>0.85439200000000004</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="1">
         <v>562989400</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="1">
         <v>23727.398525000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.73221800000000004</v>
       </c>
     </row>
@@ -854,51 +852,51 @@
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>318527700</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>17847.344203000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>0.84674799999999995</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>521583700</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="1">
         <v>22838.207426000001</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.75191200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2081595000</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>45624.500164999998</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>-1.508E-3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>2125816000</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>46106.576019</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>-1.1129999999999999E-2</v>
       </c>
     </row>
@@ -933,25 +931,25 @@
       <c r="A18" s="5">
         <v>0</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>511269800</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="1">
         <v>22611.275235000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>0.75401499999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="1">
         <v>627968100</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="1">
         <v>25059.292524</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.70131100000000002</v>
       </c>
     </row>
@@ -959,25 +957,25 @@
       <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>981340900</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="1">
         <v>31326.360712000002</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>0.52785199999999999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="1">
         <v>1788120000</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="1">
         <v>42286.166512999996</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>0.14949299999999999</v>
       </c>
     </row>
@@ -985,25 +983,25 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>285144600</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="1">
         <v>16886.225721999999</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>0.86280999999999997</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>565063600</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="1">
         <v>23771.066472999999</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>0.73123099999999996</v>
       </c>
     </row>
@@ -1011,51 +1009,51 @@
       <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>369170400</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="1">
         <v>19213.807066000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="1">
         <v>0.82238299999999998</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="1">
         <v>534289700</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="1">
         <v>23114.706871999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.745869</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>2081593000</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>45624.480254000002</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>-1.5070000000000001E-3</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>2125814000</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>46106.553500000002</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>-1.1129E-2</v>
       </c>
     </row>
@@ -1090,25 +1088,25 @@
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>511269800</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="1">
         <v>22611.275235000001</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="1">
         <v>0.75401499999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="1">
         <v>627968100</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="1">
         <v>25059.292524</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>0.70131100000000002</v>
       </c>
     </row>
@@ -1116,25 +1114,25 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>985068200</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="1">
         <v>31385.795532</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="1">
         <v>0.52605900000000005</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
         <v>1774891000</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="1">
         <v>42129.456474999999</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>0.15578500000000001</v>
       </c>
     </row>
@@ -1142,25 +1140,25 @@
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>279850700</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="1">
         <v>16728.740167</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="1">
         <v>0.86535700000000004</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="1">
         <v>638741400</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="1">
         <v>25273.334596000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>0.696187</v>
       </c>
     </row>
@@ -1168,51 +1166,51 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>295671300</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="1">
         <v>17195.095152000002</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="1">
         <v>0.85774499999999998</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="1">
         <v>571968000</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="1">
         <v>23915.852300999999</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>0.72794700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>4</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>2081591000</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>45624.453653999997</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>-1.506E-3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>2125812000</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>46106.523493000001</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>-1.1128000000000001E-2</v>
       </c>
     </row>
@@ -1247,25 +1245,25 @@
       <c r="A34" s="5">
         <v>0</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="1">
         <v>517696100</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="1">
         <v>22752.936310000001</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="1">
         <v>0.75092300000000001</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="1">
         <v>585522600</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="1">
         <v>24197.573853999998</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>0.72150000000000003</v>
       </c>
       <c r="J34" t="s">
@@ -1276,25 +1274,25 @@
       <c r="A35" s="5">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>936286100</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="1">
         <v>30598.792862999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="1">
         <v>0.54952900000000005</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="1">
         <v>1817265000</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="1">
         <v>42629.393656</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>0.13563</v>
       </c>
     </row>
@@ -1302,25 +1300,25 @@
       <c r="A36" s="5">
         <v>2</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>280528700</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="1">
         <v>16748.989813</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="1">
         <v>0.86503099999999999</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="1">
         <v>641562600</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="1">
         <v>25329.086923999999</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>0.69484500000000005</v>
       </c>
     </row>
@@ -1328,51 +1326,51 @@
       <c r="A37" s="5">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="1">
         <v>282320000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="1">
         <v>16802.380695</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="1">
         <v>0.86416899999999996</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="1">
         <v>579198500</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="1">
         <v>24066.543420999998</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>0.72450800000000004</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>4</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>2081538000</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>45623.880137</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>-1.4809999999999999E-3</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>2125761000</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>46105.977128999999</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>-1.1103999999999999E-2</v>
       </c>
     </row>
@@ -1399,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1407,25 +1405,25 @@
       <c r="A42" s="5">
         <v>0</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>492008700</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="1">
         <v>22181.269172</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="1">
         <v>0.76328200000000002</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="1">
         <v>595490400</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="1">
         <v>24402.671138999998</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>0.71675900000000003</v>
       </c>
       <c r="J42" t="s">
@@ -1436,25 +1434,25 @@
       <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>890199600</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="1">
         <v>29836.213055</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="1">
         <v>0.57170200000000004</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="1">
         <v>1731133000</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="1">
         <v>41606.892083999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>0.176598</v>
       </c>
     </row>
@@ -1462,25 +1460,25 @@
       <c r="A44" s="5">
         <v>2</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>319256500</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>17867.751063</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="1">
         <v>0.84639799999999998</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="1">
         <v>617371000</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="1">
         <v>24846.951917999999</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>0.70635199999999998</v>
       </c>
     </row>
@@ -1488,51 +1486,51 @@
       <c r="A45" s="5">
         <v>3</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="1">
         <v>234413400</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>15310.565908</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="1">
         <v>0.88721799999999995</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="1">
         <v>586577000</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="1">
         <v>24219.351701</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>0.72099899999999995</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>4</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>2081569000</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>45624.216275999999</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>-1.4959999999999999E-3</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>2125796000</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>46106.358719000003</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>-1.1121000000000001E-2</v>
       </c>
     </row>
@@ -1559,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1567,25 +1565,25 @@
       <c r="A50" s="5">
         <v>0</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="1">
         <v>517655200</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="1">
         <v>22752.03645</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="1">
         <v>0.75094300000000003</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="1">
         <v>584598800</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="1">
         <v>24178.477360000001</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>0.72194000000000003</v>
       </c>
       <c r="J50" t="s">
@@ -1596,25 +1594,25 @@
       <c r="A51" s="5">
         <v>1</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>920705500</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="1">
         <v>30343.129749</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="1">
         <v>0.55702499999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="1">
         <v>1800450000</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="1">
         <v>42431.710916000004</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>0.14362800000000001</v>
       </c>
     </row>
@@ -1622,25 +1620,25 @@
       <c r="A52" s="5">
         <v>2</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>349398300</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="1">
         <v>18692.197776000001</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="1">
         <v>0.83189599999999997</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="1">
         <v>571212100</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="1">
         <v>23900.044117000001</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>0.72830700000000004</v>
       </c>
     </row>
@@ -1648,51 +1646,51 @@
       <c r="A53" s="5">
         <v>3</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="1">
         <v>333430200</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="1">
         <v>18260.070554999998</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="1">
         <v>0.83957800000000005</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="1">
         <v>549609500</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="1">
         <v>23443.751446999999</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>0.73858199999999996</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>4</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>2081552000</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>45624.024024999999</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>-1.487E-3</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>2125776000</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>46106.141168000002</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>-1.1110999999999999E-2</v>
       </c>
     </row>
@@ -1719,7 +1717,7 @@
       <c r="H57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1727,25 +1725,25 @@
       <c r="A58" s="5">
         <v>0</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="1">
         <v>607853100</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="1">
         <v>24654.676744</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="1">
         <v>0.70754600000000001</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="1">
         <v>578424300</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="1">
         <v>24050.452230999999</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <v>0.72487599999999996</v>
       </c>
       <c r="J58" t="s">
@@ -1756,25 +1754,25 @@
       <c r="A59" s="5">
         <v>1</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="1">
         <v>363022400</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="1">
         <v>19053.146133999999</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="1">
         <v>0.82534099999999999</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="1">
         <v>732746000</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="1">
         <v>27069.280696000002</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>0.651474</v>
       </c>
       <c r="J59" t="s">
@@ -1785,25 +1783,25 @@
       <c r="A60" s="5">
         <v>2</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="1">
         <v>348941500</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="1">
         <v>18679.976415000001</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="1">
         <v>0.83211500000000005</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="1">
         <v>570942100</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="1">
         <v>23894.39445</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <v>0.72843500000000005</v>
       </c>
     </row>
@@ -1811,51 +1809,51 @@
       <c r="A61" s="5">
         <v>3</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="1">
         <v>333244700</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="1">
         <v>18254.99106</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="1">
         <v>0.83966799999999997</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="1">
         <v>549465800</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="1">
         <v>23440.686134</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <v>0.73865000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>4</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>2081958000</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>45628.478809</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>-1.683E-3</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>2126105000</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>46109.707176999997</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>-1.1266999999999999E-2</v>
       </c>
     </row>
@@ -1882,7 +1880,7 @@
       <c r="H65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1890,25 +1888,25 @@
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="1">
         <v>518348300</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="1">
         <v>22767.264515999999</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="1">
         <v>0.75060899999999997</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="1">
         <v>578846400</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="1">
         <v>24059.227586000001</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <v>0.72467599999999999</v>
       </c>
       <c r="J66" t="s">
@@ -1919,25 +1917,25 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="1">
         <v>829852600</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="1">
         <v>28807.161670000001</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="1">
         <v>0.60073699999999997</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="1">
         <v>1387288000</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="1">
         <v>37246.310449999997</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <v>0.340146</v>
       </c>
       <c r="J67" t="s">
@@ -1948,25 +1946,25 @@
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="1">
         <v>348970000</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="1">
         <v>18680.739612000001</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="1">
         <v>0.83210200000000001</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="1">
         <v>570942500</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="1">
         <v>23894.403328</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <v>0.72843500000000005</v>
       </c>
     </row>
@@ -1974,51 +1972,51 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="1">
         <v>293206000</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="1">
         <v>17123.259249999999</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="1">
         <v>0.858931</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="1">
         <v>555586200</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="1">
         <v>23570.875826</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <v>0.73573900000000003</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>4</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>2081585000</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>45624.395742000001</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>-1.5039999999999999E-3</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>2125815000</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>46106.564503000001</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>-1.1129999999999999E-2</v>
       </c>
     </row>
@@ -2045,7 +2043,7 @@
       <c r="H73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2053,25 +2051,25 @@
       <c r="A74" s="5">
         <v>0</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="1">
         <v>518348300</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="1">
         <v>22767.264515999999</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="1">
         <v>0.75060899999999997</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="1">
         <v>578846400</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="1">
         <v>24059.227586000001</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <v>0.72467599999999999</v>
       </c>
       <c r="J74" t="s">
@@ -2082,25 +2080,25 @@
       <c r="A75" s="5">
         <v>1</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="1">
         <v>829852600</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="1">
         <v>28807.161670000001</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="1">
         <v>0.60073699999999997</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="1">
         <v>1387288000</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="1">
         <v>37246.310449999997</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>0.340146</v>
       </c>
       <c r="J75" t="s">
@@ -2111,25 +2109,25 @@
       <c r="A76" s="5">
         <v>2</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="1">
         <v>411530500</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="1">
         <v>20286.214315000001</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="1">
         <v>0.80200199999999999</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="1">
         <v>603873300</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="1">
         <v>24573.833470000001</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <v>0.71277199999999996</v>
       </c>
     </row>
@@ -2137,25 +2135,25 @@
       <c r="A77" s="5">
         <v>3</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="1">
         <v>321088900</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="1">
         <v>17918.952827000001</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="1">
         <v>0.84551600000000005</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="1">
         <v>591110900</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="1">
         <v>24312.773277</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <v>0.71884199999999998</v>
       </c>
       <c r="J77" t="s">
@@ -2163,28 +2161,28 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>4</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>2081585000</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>45624.395742000001</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>-1.5039999999999999E-3</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>2125815000</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>46106.564503000001</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>-1.1129999999999999E-2</v>
       </c>
     </row>

--- a/scripts/eda/Model resultater.xlsx
+++ b/scripts/eda/Model resultater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simon\Projekter\Data Science Project\BilbasenProject\scripts\eda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1026F3-D7CB-4968-A28F-B8F41765092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F8484-08F7-462F-8D14-550F445586C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="360" windowWidth="21600" windowHeight="13635" xr2:uid="{4E1136BC-8D98-4D09-91A4-1E033F85CD28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -131,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -219,11 +219,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -234,6 +249,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,22 +585,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C359106B-891C-4F3D-8B2F-4D76691E29ED}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,7 +1558,7 @@
         <v>-1.1121000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>0</v>
       </c>
@@ -1590,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>0.14362800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>0.72830700000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>3</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>0.73858199999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>4</v>
       </c>
@@ -1694,7 +1718,7 @@
         <v>-1.1110999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>0</v>
@@ -1721,7 +1745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>0</v>
       </c>
@@ -1750,7 +1774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2</v>
       </c>
@@ -1804,8 +1828,29 @@
       <c r="H60" s="6">
         <v>0.72843500000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -1830,8 +1875,29 @@
       <c r="H61" s="6">
         <v>0.73865000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O61" s="11">
+        <v>518348300</v>
+      </c>
+      <c r="P61" s="11">
+        <v>22767.264515999999</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>0.75060899999999997</v>
+      </c>
+      <c r="R61" s="11">
+        <v>578846400</v>
+      </c>
+      <c r="S61" s="11">
+        <v>24059.227586000001</v>
+      </c>
+      <c r="T61" s="10">
+        <v>0.72467599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>4</v>
       </c>
@@ -1856,171 +1922,368 @@
       <c r="H62" s="9">
         <v>-1.1266999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="11">
+        <v>829852600</v>
+      </c>
+      <c r="P62" s="11">
+        <v>28807.161670000001</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>0.60073699999999997</v>
+      </c>
+      <c r="R62" s="11">
+        <v>1387288000</v>
+      </c>
+      <c r="S62" s="11">
+        <v>37246.310449999997</v>
+      </c>
+      <c r="T62" s="10">
+        <v>0.340146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63" s="11">
+        <v>348970000</v>
+      </c>
+      <c r="P63" s="11">
+        <v>18680.739612000001</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>0.83210200000000001</v>
+      </c>
+      <c r="R63" s="11">
+        <v>570942500</v>
+      </c>
+      <c r="S63" s="11">
+        <v>23894.403328</v>
+      </c>
+      <c r="T63" s="10">
+        <v>0.72843500000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" s="11">
+        <v>293206000</v>
+      </c>
+      <c r="P64" s="11">
+        <v>17123.259249999999</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>0.858931</v>
+      </c>
+      <c r="R64" s="11">
+        <v>555586200</v>
+      </c>
+      <c r="S64" s="11">
+        <v>23570.875826</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0.73573900000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O65" s="11">
+        <v>2081585000</v>
+      </c>
+      <c r="P65" s="11">
+        <v>45624.395742000001</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>-1.5039999999999999E-3</v>
+      </c>
+      <c r="R65" s="11">
+        <v>2125815000</v>
+      </c>
+      <c r="S65" s="11">
+        <v>46106.564503000001</v>
+      </c>
+      <c r="T65" s="10">
+        <v>-1.1129999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="11">
         <v>518348300</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="11">
         <v>22767.264515999999</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="10">
         <v>0.75060899999999997</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="11">
         <v>578846400</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="11">
         <v>24059.227586000001</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="10">
         <v>0.72467599999999999</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="11">
         <v>829852600</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="11">
         <v>28807.161670000001</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="10">
         <v>0.60073699999999997</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="11">
         <v>1387288000</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="11">
         <v>37246.310449999997</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="10">
         <v>0.340146</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="11">
         <v>348970000</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="11">
         <v>18680.739612000001</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="10">
         <v>0.83210200000000001</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="11">
         <v>570942500</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="11">
         <v>23894.403328</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="10">
         <v>0.72843500000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T68" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="11">
         <v>293206000</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="11">
         <v>17123.259249999999</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="10">
         <v>0.858931</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="11">
         <v>555586200</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="11">
         <v>23570.875826</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="10">
         <v>0.73573900000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O69" s="11">
+        <v>518348300</v>
+      </c>
+      <c r="P69" s="11">
+        <v>22767.264515999999</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>0.75060899999999997</v>
+      </c>
+      <c r="R69" s="11">
+        <v>578846400</v>
+      </c>
+      <c r="S69" s="11">
+        <v>24059.227586000001</v>
+      </c>
+      <c r="T69" s="10">
+        <v>0.72467599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>4</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="11">
         <v>2081585000</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="11">
         <v>45624.395742000001</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="10">
         <v>-1.5039999999999999E-3</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="11">
         <v>2125815000</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="11">
         <v>46106.564503000001</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="10">
         <v>-1.1129999999999999E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="11">
+        <v>829852600</v>
+      </c>
+      <c r="P70" s="11">
+        <v>28807.161670000001</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>0.60073699999999997</v>
+      </c>
+      <c r="R70" s="11">
+        <v>1387288000</v>
+      </c>
+      <c r="S70" s="11">
+        <v>37246.310449999997</v>
+      </c>
+      <c r="T70" s="10">
+        <v>0.340146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O71" s="11">
+        <v>348970000</v>
+      </c>
+      <c r="P71" s="11">
+        <v>18680.739612000001</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>0.83210200000000001</v>
+      </c>
+      <c r="R71" s="11">
+        <v>570942500</v>
+      </c>
+      <c r="S71" s="11">
+        <v>23894.403328</v>
+      </c>
+      <c r="T71" s="10">
+        <v>0.72843500000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="11">
+        <v>293206000</v>
+      </c>
+      <c r="P72" s="11">
+        <v>17123.259249999999</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>0.858931</v>
+      </c>
+      <c r="R72" s="11">
+        <v>555586200</v>
+      </c>
+      <c r="S72" s="11">
+        <v>23570.875826</v>
+      </c>
+      <c r="T72" s="10">
+        <v>0.73573900000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
         <v>0</v>
@@ -2047,7 +2310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -2076,7 +2339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>1</v>
       </c>
@@ -2105,7 +2368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2</v>
       </c>
@@ -2131,7 +2394,7 @@
         <v>0.71277199999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -2160,7 +2423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>4</v>
       </c>
@@ -2188,5 +2451,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>